--- a/sorensenLab/relatedToDlg2/design20211124_dlg2EnhancerCaspex/idtOligoOrder.xlsx
+++ b/sorensenLab/relatedToDlg2/design20211124_dlg2EnhancerCaspex/idtOligoOrder.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToYbx1\design20211126_pLvxVectorDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToDlg2\design20211124_dlg2EnhancerCaspex\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25185" windowHeight="11205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25890" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -39,115 +39,46 @@
     <t>STD</t>
   </si>
   <si>
-    <t>pLvxMinusCmv_fwd</t>
-  </si>
-  <si>
-    <t>TCGTTTAGTGAACCGTCAG</t>
-  </si>
-  <si>
-    <t>pLvxMinusCmv_rev</t>
-  </si>
-  <si>
-    <t>CGGAACTCCCAAGCTTATC</t>
-  </si>
-  <si>
-    <t>ef1aPromoter_fwd</t>
-  </si>
-  <si>
-    <t>cgataagcttgggagttccgTAAGAATTGGCTCCGGTG</t>
-  </si>
-  <si>
-    <t>ef1aPromoter_rev</t>
-  </si>
-  <si>
-    <t>tctgacggttcactaaacgaCCCAATTCTTAATTAATCACGAC</t>
-  </si>
-  <si>
-    <t>pLvxMinusPuro_fwd</t>
-  </si>
-  <si>
-    <t>ACCGCGTCTGGAACAATC</t>
-  </si>
-  <si>
-    <t>pLvxMinusPuro_rev</t>
-  </si>
-  <si>
-    <t>GGTAAGCTTGGGCTGCAG</t>
-  </si>
-  <si>
-    <t>bsdMarker_fwd</t>
-  </si>
-  <si>
-    <t>acctgcagcccaagcttaccATGGCCAAGCCTTTGTCTC</t>
-  </si>
-  <si>
-    <t>bsdMarker_rev</t>
-  </si>
-  <si>
-    <t>ttgattgttccagacgcggtttaGCCCTCCCACACATAACC</t>
-  </si>
-  <si>
-    <t>hygroMarker_fwd</t>
-  </si>
-  <si>
-    <t>acctgcagcccaagcttaccATGAAAAAGCCTGAACTCACCG</t>
-  </si>
-  <si>
-    <t>hygroMarker_rev</t>
-  </si>
-  <si>
-    <t>ttgattgttccagacgcggtttaTTCCTTTGCCCTCGGACG</t>
-  </si>
-  <si>
-    <t>tdTomato_fwd</t>
-  </si>
-  <si>
-    <t>tcagatctcgagctcatcggGCCACCATGGTGAGCAAG</t>
-  </si>
-  <si>
-    <t>tdTomato_rev</t>
-  </si>
-  <si>
-    <t>aattatctagagcatgtcggttaCTTGTACAGCTCGTCCATG</t>
-  </si>
-  <si>
-    <t>ybx1Wt_fwd</t>
-  </si>
-  <si>
-    <t>tcagatctcgagctcatcgggccaccATGAGCAGCGAGGCCGAG</t>
-  </si>
-  <si>
-    <t>ybx1Wt_rev</t>
-  </si>
-  <si>
-    <t>aattatctagagcatgtcggTTACTCAGCCCCGCCCTG</t>
-  </si>
-  <si>
-    <t>dlg2Short_fwd</t>
-  </si>
-  <si>
-    <t>tcagatctcgagctcatcggGCCACCATGATGAACCAC</t>
-  </si>
-  <si>
-    <t>dlg2Short_rev</t>
-  </si>
-  <si>
-    <t>aattatctagagcatgtcggTTATAACTTTTCCTTTGAGGGAATC</t>
-  </si>
-  <si>
-    <t>dlg2Long_fwd</t>
-  </si>
-  <si>
-    <t>tcagatctcgagctcatcggGCCACCATGTTCTTTGCATG</t>
-  </si>
-  <si>
-    <t>dlg2Long_rev</t>
-  </si>
-  <si>
-    <t>EF1a-F</t>
-  </si>
-  <si>
-    <t>TCAAGCCTCAGACAGTGGTTC</t>
+    <t>pLvxTdtomatoEr5Fwd</t>
+  </si>
+  <si>
+    <t>tcagatctcgagctcatcggACGTCAGATCCGCTAGCGCC</t>
+  </si>
+  <si>
+    <t>pLvxTdtomatoEr5Rev</t>
+  </si>
+  <si>
+    <t>cccctacccggtagaattatAATGTGGTATGGCTGATTATGATCAGTTATCTAGATC</t>
+  </si>
+  <si>
+    <t>peak3190Val_fwd1</t>
+  </si>
+  <si>
+    <t>TGTGTGCATTATCCTCTGAAGTTT</t>
+  </si>
+  <si>
+    <t>peak3190Val_rev1</t>
+  </si>
+  <si>
+    <t>CGGTGAACTCATATCTGGCAT</t>
+  </si>
+  <si>
+    <t>peak3190Val_fwd4</t>
+  </si>
+  <si>
+    <t>TGGCATGATTGTGATGCCCT</t>
+  </si>
+  <si>
+    <t>peak3190Val_rev4</t>
+  </si>
+  <si>
+    <t>CCCAGGCTAACTATGCCCAG</t>
+  </si>
+  <si>
+    <t>dtagSanger1</t>
+  </si>
+  <si>
+    <t>GATCCGAGGCTGGGAAGAAG</t>
   </si>
 </sst>
 </file>
@@ -474,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,174 +531,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
